--- a/Jogos_do_Dia/2023-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
   <si>
     <t>League</t>
   </si>
@@ -133,15 +133,15 @@
     <t>Azerbaijan Premyer Liqası</t>
   </si>
   <si>
+    <t>Serbia Prva Liga</t>
+  </si>
+  <si>
+    <t>Egypt Second Division</t>
+  </si>
+  <si>
     <t>Saudi Arabia Professional League</t>
   </si>
   <si>
-    <t>Egypt Second Division</t>
-  </si>
-  <si>
-    <t>Serbia Prva Liga</t>
-  </si>
-  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Brazil Paulista A1</t>
+  </si>
+  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
@@ -190,45 +193,27 @@
     <t>Sabail FK</t>
   </si>
   <si>
+    <t>Zlatibor Čajetina</t>
+  </si>
+  <si>
+    <t>Helal Aldabaa</t>
+  </si>
+  <si>
+    <t>Telephonaat Beni Suef</t>
+  </si>
+  <si>
     <t>Al Khaleej</t>
   </si>
   <si>
-    <t>El Gounah</t>
-  </si>
-  <si>
-    <t>Mallawi</t>
-  </si>
-  <si>
-    <t>Tamya</t>
-  </si>
-  <si>
-    <t>Asyut Petroleum</t>
-  </si>
-  <si>
-    <t>Al Nasr Taa'den</t>
-  </si>
-  <si>
-    <t>Telephonaat Beni Suef</t>
-  </si>
-  <si>
-    <t>Helal Aldabaa</t>
-  </si>
-  <si>
-    <t>Zlatibor Čajetina</t>
-  </si>
-  <si>
-    <t>Shoban Moslemen Qena</t>
-  </si>
-  <si>
     <t>Tabor Sežana</t>
   </si>
   <si>
+    <t>Ghazl El Mehalla</t>
+  </si>
+  <si>
     <t>Neftçi</t>
   </si>
   <si>
-    <t>Ghazl El Mehalla</t>
-  </si>
-  <si>
     <t>Vaprus</t>
   </si>
   <si>
@@ -247,93 +232,96 @@
     <t>Djurgården</t>
   </si>
   <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Slovan Bratislava</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
     <t>Sepsi</t>
   </si>
   <si>
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Union Saint-Gilloise</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Villarreal</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Vargas Torres</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
-    <t>Union Saint-Gilloise</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>São Bernardo</t>
   </si>
   <si>
     <t>Cerro Porteño</t>
   </si>
   <si>
-    <t>CSA</t>
+    <t>Aldosivi</t>
+  </si>
+  <si>
+    <t>Club Atlético Mitre</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
+    <t>Villa Dálmine</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
+  </si>
+  <si>
+    <t>Atlético Rafaela</t>
+  </si>
+  <si>
+    <t>Estudiantes Caseros</t>
   </si>
   <si>
     <t>Grêmio</t>
   </si>
   <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
     <t>Sporting Cristal</t>
   </si>
   <si>
@@ -358,45 +346,27 @@
     <t>Turan</t>
   </si>
   <si>
+    <t>Grafičar</t>
+  </si>
+  <si>
+    <t>Kafr El Sheikh</t>
+  </si>
+  <si>
+    <t>Asmant Asyut</t>
+  </si>
+  <si>
     <t>Al Ta'ee</t>
   </si>
   <si>
-    <t>La Viena FC</t>
-  </si>
-  <si>
-    <t>Dayrout</t>
-  </si>
-  <si>
-    <t>Aluminium Nag Hammadi</t>
-  </si>
-  <si>
-    <t>Kima Aswan</t>
-  </si>
-  <si>
-    <t>El Minya SC</t>
-  </si>
-  <si>
-    <t>Asmant Asyut</t>
-  </si>
-  <si>
-    <t>Kafr El Sheikh</t>
-  </si>
-  <si>
-    <t>Grafičar</t>
-  </si>
-  <si>
-    <t>Misr Lel Makasa</t>
-  </si>
-  <si>
     <t>Gorica</t>
   </si>
   <si>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
     <t>Kapaz</t>
   </si>
   <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
@@ -415,91 +385,94 @@
     <t>Lech Poznań</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Shakhtar Donetsk</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
     <t>Basel</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>U Craiova 1948</t>
   </si>
   <si>
     <t>Dundalk</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>AEK Larnaca</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
     <t>RSC Anderlecht</t>
   </si>
   <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
-    <t>AEK Larnaca</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Manta FC</t>
   </si>
   <si>
-    <t>Sporting CP</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Roma</t>
+    <t>Brusque</t>
+  </si>
+  <si>
+    <t>Inter de Limeira</t>
   </si>
   <si>
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Brusque</t>
+    <t>Chacarita Juniors</t>
+  </si>
+  <si>
+    <t>Tristán Suárez</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Gimnasia Jujuy</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Ferroviário</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Chacarita Juniors</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
   </si>
   <si>
     <t>Huracán</t>
@@ -867,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>1.43</v>
@@ -1057,16 +1030,16 @@
         <v>2.81</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE2">
         <v>1.61</v>
@@ -1078,7 +1051,7 @@
         <v>2.51</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1092,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1196,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>1.31</v>
@@ -1265,28 +1238,28 @@
         <v>2.78</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1300,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1.04</v>
@@ -1327,10 +1300,10 @@
         <v>3.98</v>
       </c>
       <c r="M5">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O5">
         <v>1.3</v>
@@ -1339,10 +1312,10 @@
         <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R5">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="S5">
         <v>1.88</v>
@@ -1369,28 +1342,28 @@
         <v>3.57</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF5">
         <v>2</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1404,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H6">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1434,7 +1407,7 @@
         <v>1.67</v>
       </c>
       <c r="N6">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -1508,19 +1481,19 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1535,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1612,73 +1585,73 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="G8">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="H8">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="M8">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V8">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="X8">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Z8">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1716,19 +1689,19 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1743,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1770,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="X9">
-        <v>2.41</v>
+        <v>1.22</v>
       </c>
       <c r="Y9">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="Z9">
-        <v>3.96</v>
+        <v>2.39</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1820,19 +1793,19 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1847,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1874,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Y10">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z10">
-        <v>1.13</v>
+        <v>2.58</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1915,82 +1888,82 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>45001.41666666666</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V11">
+        <v>1.3</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="W11">
-        <v>1.1</v>
-      </c>
       <c r="X11">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="Y11">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="Z11">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2019,132 +1992,132 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.45833333334</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Y12">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="Z12">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.5</v>
       </c>
       <c r="C13">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2159,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2186,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="W13">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="X13">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="Y13">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="Z13">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2227,82 +2200,82 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.5</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>0.9</v>
+        <v>2.38</v>
       </c>
       <c r="W14">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="X14">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Y14">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="Z14">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2331,82 +2304,82 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.54166666666</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="Z15">
-        <v>2.39</v>
+        <v>1.62</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2435,82 +2408,82 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.54166666666</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="W16">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="X16">
-        <v>1.21</v>
+        <v>1.9</v>
       </c>
       <c r="Y16">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="Z16">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2539,82 +2512,82 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.5625</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V17">
-        <v>0.9</v>
+        <v>1.92</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="X17">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="Y17">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="Z17">
-        <v>2.47</v>
+        <v>3.76</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2643,103 +2616,103 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
-        <v>45001.45833333334</v>
+        <v>45001.58333333334</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0.91</v>
+      </c>
+      <c r="W18">
+        <v>0.9</v>
+      </c>
+      <c r="X18">
         <v>1.45</v>
       </c>
-      <c r="T18">
-        <v>1.32</v>
-      </c>
-      <c r="U18">
-        <v>1.5</v>
-      </c>
-      <c r="V18">
-        <v>0.75</v>
-      </c>
-      <c r="W18">
-        <v>0.67</v>
-      </c>
-      <c r="X18">
-        <v>1.53</v>
-      </c>
       <c r="Y18">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="Z18">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AA18">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2747,82 +2720,82 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>45001.5</v>
+        <v>45001.58333333334</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V19">
-        <v>2.38</v>
+        <v>0.78</v>
       </c>
       <c r="W19">
-        <v>0.54</v>
+        <v>1.11</v>
       </c>
       <c r="X19">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="Y19">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="Z19">
-        <v>2.92</v>
+        <v>2.45</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2851,626 +2824,626 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <v>45001.5</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F20">
-        <v>3.8</v>
+        <v>2.42</v>
       </c>
       <c r="G20">
+        <v>3.35</v>
+      </c>
+      <c r="H20">
+        <v>2.7</v>
+      </c>
+      <c r="I20">
+        <v>1.05</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>1.28</v>
+      </c>
+      <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>1.86</v>
+      </c>
+      <c r="N20">
+        <v>1.87</v>
+      </c>
+      <c r="O20">
+        <v>1.37</v>
+      </c>
+      <c r="P20">
+        <v>2.85</v>
+      </c>
+      <c r="Q20">
+        <v>1.73</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.43</v>
+      </c>
+      <c r="T20">
+        <v>1.27</v>
+      </c>
+      <c r="U20">
+        <v>1.57</v>
+      </c>
+      <c r="V20">
+        <v>2.38</v>
+      </c>
+      <c r="W20">
+        <v>1.8</v>
+      </c>
+      <c r="X20">
+        <v>1.65</v>
+      </c>
+      <c r="Y20">
+        <v>1.19</v>
+      </c>
+      <c r="Z20">
+        <v>2.84</v>
+      </c>
+      <c r="AA20">
+        <v>1.67</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>2.86</v>
+      </c>
+      <c r="AD20">
+        <v>1.24</v>
+      </c>
+      <c r="AE20">
+        <v>1.47</v>
+      </c>
+      <c r="AF20">
+        <v>2.38</v>
+      </c>
+      <c r="AG20">
+        <v>2.36</v>
+      </c>
+      <c r="AH20">
         <v>3.2</v>
-      </c>
-      <c r="H20">
-        <v>1.85</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>1.7</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1.45</v>
-      </c>
-      <c r="W20">
-        <v>1.6</v>
-      </c>
-      <c r="X20">
-        <v>1.43</v>
-      </c>
-      <c r="Y20">
-        <v>1.44</v>
-      </c>
-      <c r="Z20">
-        <v>2.87</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
-        <v>45001.54166666666</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F21">
-        <v>6.8</v>
+        <v>2.85</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
+        <v>2.47</v>
+      </c>
+      <c r="I21">
+        <v>1.08</v>
+      </c>
+      <c r="J21">
+        <v>8.5</v>
+      </c>
+      <c r="K21">
+        <v>1.44</v>
+      </c>
+      <c r="L21">
+        <v>2.8</v>
+      </c>
+      <c r="M21">
+        <v>2.05</v>
+      </c>
+      <c r="N21">
+        <v>1.67</v>
+      </c>
+      <c r="O21">
+        <v>1.53</v>
+      </c>
+      <c r="P21">
+        <v>2.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.95</v>
+      </c>
+      <c r="R21">
+        <v>1.81</v>
+      </c>
+      <c r="S21">
+        <v>1.62</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
         <v>1.38</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="Y21">
-        <v>1.62</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z21">
-        <v>1.62</v>
+        <v>2.95</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
-        <v>45001.54166666666</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V22">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="W22">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="Y22">
-        <v>1.34</v>
+        <v>0.83</v>
       </c>
       <c r="Z22">
-        <v>3.24</v>
+        <v>2.88</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
-        <v>45001.5625</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F23">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G23">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H23">
+        <v>2.02</v>
+      </c>
+      <c r="I23">
+        <v>1.04</v>
+      </c>
+      <c r="J23">
+        <v>9.5</v>
+      </c>
+      <c r="K23">
+        <v>1.26</v>
+      </c>
+      <c r="L23">
+        <v>3.55</v>
+      </c>
+      <c r="M23">
+        <v>1.73</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1.42</v>
+      </c>
+      <c r="P23">
+        <v>2.95</v>
+      </c>
+      <c r="Q23">
+        <v>1.85</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>1.22</v>
+      </c>
+      <c r="U23">
+        <v>1.3</v>
+      </c>
+      <c r="V23">
+        <v>2.29</v>
+      </c>
+      <c r="W23">
+        <v>2.44</v>
+      </c>
+      <c r="X23">
+        <v>1.9</v>
+      </c>
+      <c r="Y23">
+        <v>1.63</v>
+      </c>
+      <c r="Z23">
+        <v>3.53</v>
+      </c>
+      <c r="AA23">
         <v>2.7</v>
       </c>
-      <c r="I23">
-        <v>1.02</v>
-      </c>
-      <c r="J23">
-        <v>11.25</v>
-      </c>
-      <c r="K23">
+      <c r="AB23">
+        <v>8</v>
+      </c>
+      <c r="AC23">
+        <v>1.62</v>
+      </c>
+      <c r="AD23">
         <v>1.3</v>
       </c>
-      <c r="L23">
-        <v>3.3</v>
-      </c>
-      <c r="M23">
-        <v>1.87</v>
-      </c>
-      <c r="N23">
-        <v>1.87</v>
-      </c>
-      <c r="O23">
-        <v>1.41</v>
-      </c>
-      <c r="P23">
-        <v>2.78</v>
-      </c>
-      <c r="Q23">
-        <v>1.76</v>
-      </c>
-      <c r="R23">
-        <v>2.01</v>
-      </c>
-      <c r="S23">
-        <v>1.41</v>
-      </c>
-      <c r="T23">
-        <v>1.32</v>
-      </c>
-      <c r="U23">
-        <v>1.56</v>
-      </c>
-      <c r="V23">
-        <v>1.92</v>
-      </c>
-      <c r="W23">
-        <v>1.58</v>
-      </c>
-      <c r="X23">
-        <v>2.02</v>
-      </c>
-      <c r="Y23">
-        <v>1.74</v>
-      </c>
-      <c r="Z23">
-        <v>3.76</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
-        <v>45001.58333333334</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V24">
-        <v>0.91</v>
+        <v>1.29</v>
       </c>
       <c r="W24">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="X24">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="Y24">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Z24">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
-        <v>45001.58333333334</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="G25">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="H25">
-        <v>3.5</v>
+        <v>1.69</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K25">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="L25">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
+        <v>1.67</v>
+      </c>
+      <c r="N25">
+        <v>2.05</v>
+      </c>
+      <c r="O25">
+        <v>1.31</v>
+      </c>
+      <c r="P25">
+        <v>3.2</v>
+      </c>
+      <c r="Q25">
+        <v>1.83</v>
+      </c>
+      <c r="R25">
+        <v>1.83</v>
+      </c>
+      <c r="S25">
+        <v>2.15</v>
+      </c>
+      <c r="T25">
+        <v>1.23</v>
+      </c>
+      <c r="U25">
+        <v>1.19</v>
+      </c>
+      <c r="V25">
+        <v>1.57</v>
+      </c>
+      <c r="W25">
+        <v>2.36</v>
+      </c>
+      <c r="X25">
+        <v>1.57</v>
+      </c>
+      <c r="Y25">
+        <v>1.75</v>
+      </c>
+      <c r="Z25">
+        <v>3.32</v>
+      </c>
+      <c r="AA25">
+        <v>4.56</v>
+      </c>
+      <c r="AB25">
+        <v>7.7</v>
+      </c>
+      <c r="AC25">
+        <v>1.35</v>
+      </c>
+      <c r="AD25">
+        <v>1.31</v>
+      </c>
+      <c r="AE25">
+        <v>1.58</v>
+      </c>
+      <c r="AF25">
         <v>2.04</v>
       </c>
-      <c r="N25">
-        <v>1.78</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1.75</v>
-      </c>
-      <c r="R25">
-        <v>2.04</v>
-      </c>
-      <c r="S25">
-        <v>1.27</v>
-      </c>
-      <c r="T25">
-        <v>1.32</v>
-      </c>
-      <c r="U25">
-        <v>1.77</v>
-      </c>
-      <c r="V25">
-        <v>0.78</v>
-      </c>
-      <c r="W25">
-        <v>1.11</v>
-      </c>
-      <c r="X25">
-        <v>1.39</v>
-      </c>
-      <c r="Y25">
-        <v>1.06</v>
-      </c>
-      <c r="Z25">
-        <v>2.45</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3484,305 +3457,305 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="G26">
+        <v>3.45</v>
+      </c>
+      <c r="H26">
+        <v>2.6</v>
+      </c>
+      <c r="I26">
+        <v>1.05</v>
+      </c>
+      <c r="J26">
+        <v>9.5</v>
+      </c>
+      <c r="K26">
+        <v>1.27</v>
+      </c>
+      <c r="L26">
         <v>3.4</v>
       </c>
-      <c r="H26">
-        <v>2.75</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="N26">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Q26">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V26">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X26">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="Y26">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="Z26">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AA26">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AB26">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="AC26">
-        <v>2.99</v>
+        <v>2.27</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF26">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.66666666666</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F27">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="G27">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2.75</v>
+        <v>4.3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
+        <v>2.35</v>
+      </c>
+      <c r="N27">
+        <v>1.53</v>
+      </c>
+      <c r="O27">
+        <v>1.43</v>
+      </c>
+      <c r="P27">
+        <v>2.65</v>
+      </c>
+      <c r="Q27">
+        <v>1.9</v>
+      </c>
+      <c r="R27">
         <v>1.83</v>
       </c>
-      <c r="N27">
+      <c r="S27">
+        <v>1.17</v>
+      </c>
+      <c r="T27">
+        <v>1.22</v>
+      </c>
+      <c r="U27">
         <v>1.95</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1.67</v>
-      </c>
-      <c r="R27">
-        <v>2.1</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="W27">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="Y27">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="Z27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AA27">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="AB27">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AC27">
-        <v>2.31</v>
+        <v>3.15</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF27">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.69791666666</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F28">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>1.75</v>
+        <v>1.99</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q28">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R28">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V28">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>2.36</v>
+        <v>0.5</v>
       </c>
       <c r="X28">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="Y28">
-        <v>1.75</v>
+        <v>0.82</v>
       </c>
       <c r="Z28">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
       <c r="AA28">
-        <v>4.68</v>
+        <v>1.95</v>
       </c>
       <c r="AB28">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC28">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -3790,103 +3763,103 @@
         <v>48</v>
       </c>
       <c r="B29" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>1.65</v>
+        <v>2.85</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H29">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="I29">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="K29">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="M29">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="O29">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="T29">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="U29">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="V29">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="X29">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Y29">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Z29">
-        <v>2.89</v>
+        <v>3.13</v>
       </c>
       <c r="AA29">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="AB29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC29">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="AD29">
         <v>1.38</v>
       </c>
       <c r="AE29">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AF29">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AG29">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AH29">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3894,103 +3867,103 @@
         <v>48</v>
       </c>
       <c r="B30" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G30">
+        <v>3.6</v>
+      </c>
+      <c r="H30">
+        <v>1.94</v>
+      </c>
+      <c r="I30">
+        <v>1.03</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>1.25</v>
+      </c>
+      <c r="L30">
         <v>3.75</v>
       </c>
-      <c r="H30">
-        <v>2.05</v>
-      </c>
-      <c r="I30">
-        <v>1.04</v>
-      </c>
-      <c r="J30">
-        <v>9.5</v>
-      </c>
-      <c r="K30">
-        <v>1.26</v>
-      </c>
-      <c r="L30">
-        <v>3.55</v>
-      </c>
       <c r="M30">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="P30">
         <v>2.95</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="T30">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="U30">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V30">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="W30">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="Y30">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="Z30">
-        <v>3.53</v>
+        <v>4.3</v>
       </c>
       <c r="AA30">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="AB30">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC30">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AD30">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AE30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AF30">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AG30">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH30">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3998,103 +3971,103 @@
         <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F31">
-        <v>2.9</v>
+        <v>1.42</v>
       </c>
       <c r="G31">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H31">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="I31">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K31">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="N31">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="O31">
+        <v>1.32</v>
+      </c>
+      <c r="P31">
+        <v>3.1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>1.78</v>
+      </c>
+      <c r="S31">
+        <v>1.11</v>
+      </c>
+      <c r="T31">
+        <v>1.18</v>
+      </c>
+      <c r="U31">
+        <v>2.95</v>
+      </c>
+      <c r="V31">
+        <v>2.29</v>
+      </c>
+      <c r="W31">
+        <v>1.67</v>
+      </c>
+      <c r="X31">
+        <v>2.26</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>3.26</v>
+      </c>
+      <c r="AA31">
+        <v>1.27</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31">
+        <v>4.9</v>
+      </c>
+      <c r="AD31">
+        <v>1.29</v>
+      </c>
+      <c r="AE31">
         <v>1.45</v>
       </c>
-      <c r="P31">
-        <v>2.75</v>
-      </c>
-      <c r="Q31">
-        <v>1.8</v>
-      </c>
-      <c r="R31">
-        <v>1.98</v>
-      </c>
-      <c r="S31">
-        <v>1.36</v>
-      </c>
-      <c r="T31">
-        <v>1.28</v>
-      </c>
-      <c r="U31">
-        <v>1.68</v>
-      </c>
-      <c r="V31">
-        <v>2.18</v>
-      </c>
-      <c r="W31">
+      <c r="AF31">
         <v>2</v>
       </c>
-      <c r="X31">
-        <v>2.05</v>
-      </c>
-      <c r="Y31">
-        <v>0.83</v>
-      </c>
-      <c r="Z31">
-        <v>2.88</v>
-      </c>
-      <c r="AA31">
-        <v>1.8</v>
-      </c>
-      <c r="AB31">
-        <v>7.5</v>
-      </c>
-      <c r="AC31">
-        <v>2.4</v>
-      </c>
-      <c r="AD31">
-        <v>1.4</v>
-      </c>
-      <c r="AE31">
-        <v>1.66</v>
-      </c>
-      <c r="AF31">
-        <v>2.06</v>
-      </c>
       <c r="AG31">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AH31">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4102,296 +4075,296 @@
         <v>48</v>
       </c>
       <c r="B32" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="G32">
         <v>3.3</v>
       </c>
       <c r="H32">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="I32">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J32">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="L32">
+        <v>2.65</v>
+      </c>
+      <c r="M32">
+        <v>2.2</v>
+      </c>
+      <c r="N32">
+        <v>1.6</v>
+      </c>
+      <c r="O32">
+        <v>1.49</v>
+      </c>
+      <c r="P32">
+        <v>2.4</v>
+      </c>
+      <c r="Q32">
+        <v>2.05</v>
+      </c>
+      <c r="R32">
+        <v>1.68</v>
+      </c>
+      <c r="S32">
+        <v>1.28</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>1.7</v>
+      </c>
+      <c r="V32">
+        <v>2.14</v>
+      </c>
+      <c r="W32">
+        <v>1.78</v>
+      </c>
+      <c r="X32">
+        <v>2.17</v>
+      </c>
+      <c r="Y32">
+        <v>1.48</v>
+      </c>
+      <c r="Z32">
+        <v>3.65</v>
+      </c>
+      <c r="AA32">
+        <v>1.58</v>
+      </c>
+      <c r="AB32">
+        <v>7.5</v>
+      </c>
+      <c r="AC32">
         <v>2.8</v>
       </c>
-      <c r="M32">
-        <v>2.15</v>
-      </c>
-      <c r="N32">
+      <c r="AD32">
+        <v>1.42</v>
+      </c>
+      <c r="AE32">
         <v>1.7</v>
       </c>
-      <c r="O32">
-        <v>1.53</v>
-      </c>
-      <c r="P32">
-        <v>2.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.95</v>
-      </c>
-      <c r="R32">
-        <v>1.81</v>
-      </c>
-      <c r="S32">
-        <v>1.62</v>
-      </c>
-      <c r="T32">
-        <v>1.3</v>
-      </c>
-      <c r="U32">
-        <v>1.38</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>2.33</v>
-      </c>
-      <c r="X32">
-        <v>2.01</v>
-      </c>
-      <c r="Y32">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z32">
-        <v>2.95</v>
-      </c>
-      <c r="AA32">
-        <v>2.25</v>
-      </c>
-      <c r="AB32">
-        <v>7</v>
-      </c>
-      <c r="AC32">
-        <v>1.87</v>
-      </c>
-      <c r="AD32">
-        <v>1.5</v>
-      </c>
-      <c r="AE32">
-        <v>1.82</v>
-      </c>
       <c r="AF32">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="AG32">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AH32">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
-        <v>45001.66666666666</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F33">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="G33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H33">
-        <v>4.4</v>
+        <v>2.43</v>
       </c>
       <c r="I33">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="K33">
+        <v>1.28</v>
+      </c>
+      <c r="L33">
+        <v>3.5</v>
+      </c>
+      <c r="M33">
+        <v>1.78</v>
+      </c>
+      <c r="N33">
+        <v>1.97</v>
+      </c>
+      <c r="O33">
+        <v>1.35</v>
+      </c>
+      <c r="P33">
+        <v>2.9</v>
+      </c>
+      <c r="Q33">
+        <v>1.67</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>1.43</v>
+      </c>
+      <c r="T33">
+        <v>1.28</v>
+      </c>
+      <c r="U33">
+        <v>1.34</v>
+      </c>
+      <c r="V33">
+        <v>2.54</v>
+      </c>
+      <c r="W33">
         <v>1.33</v>
       </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.43</v>
-      </c>
-      <c r="N33">
-        <v>1.54</v>
-      </c>
-      <c r="O33">
-        <v>1.43</v>
-      </c>
-      <c r="P33">
-        <v>2.65</v>
-      </c>
-      <c r="Q33">
-        <v>1.9</v>
-      </c>
-      <c r="R33">
-        <v>1.83</v>
-      </c>
-      <c r="S33">
-        <v>1.17</v>
-      </c>
-      <c r="T33">
-        <v>1.22</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.36</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
       <c r="X33">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="Y33">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="Z33">
-        <v>3.25</v>
+        <v>3.87</v>
       </c>
       <c r="AA33">
-        <v>1.43</v>
+        <v>2.05</v>
       </c>
       <c r="AB33">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AC33">
-        <v>3.15</v>
+        <v>2.18</v>
       </c>
       <c r="AD33">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AE33">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AF33">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="AG33">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AH33">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
-        <v>45001.69791666666</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F34">
+        <v>1.21</v>
+      </c>
+      <c r="G34">
+        <v>5.8</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1.01</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>1.25</v>
+      </c>
+      <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>1.78</v>
+      </c>
+      <c r="N34">
+        <v>1.97</v>
+      </c>
+      <c r="O34">
+        <v>1.34</v>
+      </c>
+      <c r="P34">
         <v>3.1</v>
       </c>
-      <c r="G34">
-        <v>3.4</v>
-      </c>
-      <c r="H34">
-        <v>2.15</v>
-      </c>
-      <c r="I34">
-        <v>1.07</v>
-      </c>
-      <c r="J34">
-        <v>7.5</v>
-      </c>
-      <c r="K34">
-        <v>1.36</v>
-      </c>
-      <c r="L34">
+      <c r="Q34">
+        <v>2.5</v>
+      </c>
+      <c r="R34">
+        <v>1.5</v>
+      </c>
+      <c r="S34">
+        <v>1.02</v>
+      </c>
+      <c r="T34">
+        <v>1.1</v>
+      </c>
+      <c r="U34">
+        <v>3.18</v>
+      </c>
+      <c r="V34">
         <v>3</v>
       </c>
-      <c r="M34">
-        <v>2.1</v>
-      </c>
-      <c r="N34">
-        <v>1.68</v>
-      </c>
-      <c r="O34">
-        <v>1.4</v>
-      </c>
-      <c r="P34">
-        <v>2.75</v>
-      </c>
-      <c r="Q34">
-        <v>1.82</v>
-      </c>
-      <c r="R34">
-        <v>1.94</v>
-      </c>
-      <c r="S34">
-        <v>1.8</v>
-      </c>
-      <c r="T34">
+      <c r="W34">
         <v>1.33</v>
       </c>
-      <c r="U34">
-        <v>1.25</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>0.5</v>
-      </c>
       <c r="X34">
-        <v>2.19</v>
+        <v>1.81</v>
       </c>
       <c r="Y34">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>3.01</v>
+        <v>2.81</v>
       </c>
       <c r="AA34">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="AB34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC34">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="AD34">
         <v>1.18</v>
@@ -4400,13 +4373,13 @@
         <v>1.38</v>
       </c>
       <c r="AF34">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AG34">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4420,97 +4393,97 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F35">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="G35">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H35">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="V35">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="W35">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Y35">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="Z35">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="AA35">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AB35">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="AC35">
-        <v>5.55</v>
+        <v>4.56</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4524,123 +4497,123 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F36">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
         <v>1.75</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Q36">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="R36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V36">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="X36">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y36">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="Z36">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="AA36">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AB36">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC36">
-        <v>5.3</v>
+        <v>5.85</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>45001.70833333334</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4655,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4667,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4682,28 +4655,28 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -4712,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4723,28 +4696,28 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.79166666666</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F38">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4759,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4771,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4786,28 +4759,28 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="W38">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X38">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Z38">
-        <v>3.87</v>
+        <v>1.74</v>
       </c>
       <c r="AA38">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -4827,19 +4800,19 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.79166666666</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4890,19 +4863,19 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -4931,498 +4904,498 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.79166666666</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F40">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="G40">
-        <v>4.75</v>
+        <v>3.18</v>
       </c>
       <c r="H40">
-        <v>7.5</v>
+        <v>3.01</v>
       </c>
       <c r="I40">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M40">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="O40">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R40">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="S40">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>1.72</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1.33</v>
+      </c>
+      <c r="X40">
+        <v>1.76</v>
+      </c>
+      <c r="Y40">
         <v>1.18</v>
       </c>
-      <c r="U40">
-        <v>2.95</v>
-      </c>
-      <c r="V40">
-        <v>2.29</v>
-      </c>
-      <c r="W40">
-        <v>1.67</v>
-      </c>
-      <c r="X40">
-        <v>2.26</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
       <c r="Z40">
-        <v>3.26</v>
+        <v>2.94</v>
       </c>
       <c r="AA40">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F41">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X41">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="Y41">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="Z41">
-        <v>4.3</v>
+        <v>2.91</v>
       </c>
       <c r="AA41">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>3.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F42">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W42">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="Y42">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Z42">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="AA42">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F43">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>2.17</v>
+        <v>1.41</v>
       </c>
       <c r="Y43">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Z43">
-        <v>3.65</v>
+        <v>2.66</v>
       </c>
       <c r="AA43">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
-        <v>45001.79166666666</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F44">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1.5</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1.88</v>
+      </c>
+      <c r="Y44">
         <v>1.44</v>
       </c>
-      <c r="P44">
-        <v>2.7</v>
-      </c>
-      <c r="Q44">
-        <v>2.12</v>
-      </c>
-      <c r="R44">
-        <v>1.68</v>
-      </c>
-      <c r="S44">
-        <v>1.36</v>
-      </c>
-      <c r="T44">
-        <v>1.3</v>
-      </c>
-      <c r="U44">
-        <v>1.72</v>
-      </c>
-      <c r="V44">
-        <v>3</v>
-      </c>
-      <c r="W44">
-        <v>1.33</v>
-      </c>
-      <c r="X44">
-        <v>1.76</v>
-      </c>
-      <c r="Y44">
-        <v>1.18</v>
-      </c>
       <c r="Z44">
-        <v>2.94</v>
+        <v>3.32</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -5451,19 +5424,19 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2">
-        <v>45001.79166666666</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5514,19 +5487,19 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Y45">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="Z45">
-        <v>1.74</v>
+        <v>3.17</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -5555,19 +5528,19 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>45001.83333333334</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5618,19 +5591,19 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Y46">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="Z46">
-        <v>1.28</v>
+        <v>2.71</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5659,7 +5632,7 @@
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>45001.83333333334</v>
@@ -5668,10 +5641,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5722,19 +5695,19 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X47">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y47">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="Z47">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -5763,7 +5736,7 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>45001.83333333334</v>
@@ -5772,10 +5745,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5867,7 +5840,7 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
         <v>45001.83333333334</v>
@@ -5876,10 +5849,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5930,19 +5903,19 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y49">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="Z49">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -5971,19 +5944,19 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2">
         <v>45001.83333333334</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6034,19 +6007,19 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="W50">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="X50">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z50">
-        <v>2.71</v>
+        <v>1.28</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -6075,82 +6048,82 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B51" s="2">
-        <v>45001.83333333334</v>
+        <v>45001.875</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X51">
-        <v>1.41</v>
+        <v>2.27</v>
       </c>
       <c r="Y51">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Z51">
-        <v>2.66</v>
+        <v>4.61</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -6179,19 +6152,19 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B52" s="2">
-        <v>45001.83333333334</v>
+        <v>45001.875</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -6242,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -6278,526 +6251,6 @@
         <v>0</v>
       </c>
       <c r="AH52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45001.83333333334</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>3</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
-        <v>1.4</v>
-      </c>
-      <c r="Y53">
-        <v>1.57</v>
-      </c>
-      <c r="Z53">
-        <v>2.97</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45001.83333333334</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
-      <c r="W54">
-        <v>1.67</v>
-      </c>
-      <c r="X54">
-        <v>1.51</v>
-      </c>
-      <c r="Y54">
-        <v>1.4</v>
-      </c>
-      <c r="Z54">
-        <v>2.91</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45001.83333333334</v>
-      </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
-        <v>1.6</v>
-      </c>
-      <c r="Y55">
-        <v>1.57</v>
-      </c>
-      <c r="Z55">
-        <v>3.17</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45001.875</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56">
-        <v>2.19</v>
-      </c>
-      <c r="G56">
-        <v>3.01</v>
-      </c>
-      <c r="H56">
-        <v>2.84</v>
-      </c>
-      <c r="I56">
-        <v>1.07</v>
-      </c>
-      <c r="J56">
-        <v>9.5</v>
-      </c>
-      <c r="K56">
-        <v>1.36</v>
-      </c>
-      <c r="L56">
-        <v>3.1</v>
-      </c>
-      <c r="M56">
-        <v>2.1</v>
-      </c>
-      <c r="N56">
-        <v>1.67</v>
-      </c>
-      <c r="O56">
-        <v>1.4</v>
-      </c>
-      <c r="P56">
-        <v>2.75</v>
-      </c>
-      <c r="Q56">
-        <v>1.89</v>
-      </c>
-      <c r="R56">
-        <v>1.87</v>
-      </c>
-      <c r="S56">
-        <v>1.38</v>
-      </c>
-      <c r="T56">
-        <v>1.34</v>
-      </c>
-      <c r="U56">
-        <v>1.62</v>
-      </c>
-      <c r="V56">
-        <v>1.33</v>
-      </c>
-      <c r="W56">
-        <v>1.67</v>
-      </c>
-      <c r="X56">
-        <v>2.27</v>
-      </c>
-      <c r="Y56">
-        <v>2.34</v>
-      </c>
-      <c r="Z56">
-        <v>4.61</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45001.875</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="157">
   <si>
     <t>League</t>
   </si>
@@ -133,15 +133,15 @@
     <t>Azerbaijan Premyer Liqası</t>
   </si>
   <si>
+    <t>Egypt Second Division</t>
+  </si>
+  <si>
+    <t>Saudi Arabia Professional League</t>
+  </si>
+  <si>
     <t>Serbia Prva Liga</t>
   </si>
   <si>
-    <t>Egypt Second Division</t>
-  </si>
-  <si>
-    <t>Saudi Arabia Professional League</t>
-  </si>
-  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
@@ -193,27 +193,30 @@
     <t>Sabail FK</t>
   </si>
   <si>
+    <t>Telecom Egypt SC</t>
+  </si>
+  <si>
+    <t>Telephonaat Beni Suef</t>
+  </si>
+  <si>
+    <t>Al Khaleej</t>
+  </si>
+  <si>
     <t>Zlatibor Čajetina</t>
   </si>
   <si>
     <t>Helal Aldabaa</t>
   </si>
   <si>
-    <t>Telephonaat Beni Suef</t>
-  </si>
-  <si>
-    <t>Al Khaleej</t>
-  </si>
-  <si>
     <t>Tabor Sežana</t>
   </si>
   <si>
+    <t>Neftçi</t>
+  </si>
+  <si>
     <t>Ghazl El Mehalla</t>
   </si>
   <si>
-    <t>Neftçi</t>
-  </si>
-  <si>
     <t>Vaprus</t>
   </si>
   <si>
@@ -229,27 +232,27 @@
     <t>Doxa</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Djurgården</t>
   </si>
   <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
     <t>Real Betis</t>
   </si>
   <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava</t>
-  </si>
-  <si>
     <t>Sepsi</t>
   </si>
   <si>
@@ -283,15 +286,15 @@
     <t>Vargas Torres</t>
   </si>
   <si>
+    <t>São Bernardo</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
+  </si>
+  <si>
     <t>CSA</t>
   </si>
   <si>
-    <t>São Bernardo</t>
-  </si>
-  <si>
-    <t>Cerro Porteño</t>
-  </si>
-  <si>
     <t>Aldosivi</t>
   </si>
   <si>
@@ -346,27 +349,30 @@
     <t>Turan</t>
   </si>
   <si>
+    <t>Ilameen</t>
+  </si>
+  <si>
+    <t>Asmant Asyut</t>
+  </si>
+  <si>
+    <t>Al Ta'ee</t>
+  </si>
+  <si>
     <t>Grafičar</t>
   </si>
   <si>
     <t>Kafr El Sheikh</t>
   </si>
   <si>
-    <t>Asmant Asyut</t>
-  </si>
-  <si>
-    <t>Al Ta'ee</t>
-  </si>
-  <si>
     <t>Gorica</t>
   </si>
   <si>
+    <t>Kapaz</t>
+  </si>
+  <si>
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>Kapaz</t>
-  </si>
-  <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
@@ -382,27 +388,27 @@
     <t>Karmiotissa</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
     <t>Lech Poznań</t>
   </si>
   <si>
+    <t>Shakhtar Donetsk</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>Juventus</t>
   </si>
   <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
     <t>Manchester United</t>
   </si>
   <si>
-    <t>Shakhtar Donetsk</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
     <t>U Craiova 1948</t>
   </si>
   <si>
@@ -436,13 +442,13 @@
     <t>Manta FC</t>
   </si>
   <si>
+    <t>Inter de Limeira</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
     <t>Brusque</t>
-  </si>
-  <si>
-    <t>Inter de Limeira</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
   </si>
   <si>
     <t>Chacarita Juniors</t>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +970,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2">
         <v>1.43</v>
@@ -1015,10 +1021,10 @@
         <v>2.65</v>
       </c>
       <c r="V2">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="X2">
         <v>1.48</v>
@@ -1068,7 +1074,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1172,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>1.31</v>
@@ -1223,10 +1229,10 @@
         <v>3.1</v>
       </c>
       <c r="V4">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
         <v>1.88</v>
@@ -1276,16 +1282,16 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>3.74</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="I5">
         <v>1.04</v>
@@ -1300,10 +1306,10 @@
         <v>3.98</v>
       </c>
       <c r="M5">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="N5">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="O5">
         <v>1.3</v>
@@ -1312,10 +1318,10 @@
         <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="R5">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="S5">
         <v>1.88</v>
@@ -1327,10 +1333,10 @@
         <v>1.24</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1380,16 +1386,16 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="G6">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="H6">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1407,7 +1413,7 @@
         <v>1.67</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -1434,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1484,61 +1490,61 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M7">
         <v>2.15</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V7">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W7">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X7">
         <v>1.43</v>
@@ -1562,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1579,79 +1585,79 @@
         <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>45001.41666666666</v>
+        <v>45001.39583333334</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>0.18</v>
+      </c>
+      <c r="X8">
+        <v>1.1</v>
+      </c>
+      <c r="Y8">
         <v>1.2</v>
       </c>
-      <c r="U8">
-        <v>1.12</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1.55</v>
-      </c>
-      <c r="X8">
-        <v>1.21</v>
-      </c>
-      <c r="Y8">
-        <v>1.85</v>
-      </c>
       <c r="Z8">
-        <v>3.06</v>
+        <v>2.3</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>45001.41666666666</v>
@@ -1692,16 +1698,16 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1716,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1743,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="W9">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="X9">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="Y9">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="Z9">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1790,100 +1796,100 @@
         <v>45001.41666666666</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>3.26</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V10">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="W10">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="Y10">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="Z10">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1900,70 +1906,70 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F11">
+        <v>4.33</v>
+      </c>
+      <c r="G11">
+        <v>3.6</v>
+      </c>
+      <c r="H11">
+        <v>1.65</v>
+      </c>
+      <c r="I11">
+        <v>1.01</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>1.25</v>
+      </c>
+      <c r="L11">
+        <v>3.55</v>
+      </c>
+      <c r="M11">
+        <v>1.95</v>
+      </c>
+      <c r="N11">
+        <v>1.85</v>
+      </c>
+      <c r="O11">
+        <v>1.36</v>
+      </c>
+      <c r="P11">
         <v>2.9</v>
       </c>
-      <c r="G11">
-        <v>3.3</v>
-      </c>
-      <c r="H11">
-        <v>2.31</v>
-      </c>
-      <c r="I11">
-        <v>1.05</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1.23</v>
-      </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
-      <c r="M11">
-        <v>1.77</v>
-      </c>
-      <c r="N11">
-        <v>2.04</v>
-      </c>
-      <c r="O11">
-        <v>1.34</v>
-      </c>
-      <c r="P11">
-        <v>2.95</v>
-      </c>
       <c r="Q11">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="R11">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="T11">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="U11">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="V11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="X11">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="Y11">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Z11">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1992,210 +1998,210 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
-        <v>45001.45833333334</v>
+        <v>45001.41666666666</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H12">
+        <v>2.19</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1.53</v>
+      </c>
+      <c r="L12">
+        <v>2.35</v>
+      </c>
+      <c r="M12">
         <v>2.7</v>
       </c>
-      <c r="I12">
-        <v>1.06</v>
-      </c>
-      <c r="J12">
-        <v>9.5</v>
-      </c>
-      <c r="K12">
-        <v>1.33</v>
-      </c>
-      <c r="L12">
-        <v>3.1</v>
-      </c>
-      <c r="M12">
-        <v>1.87</v>
-      </c>
       <c r="N12">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="O12">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="W12">
-        <v>0.67</v>
+        <v>1.36</v>
       </c>
       <c r="X12">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="Y12">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="Z12">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="AA12">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
-        <v>45001.5</v>
+        <v>45001.45833333334</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V13">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="W13">
+        <v>0.67</v>
+      </c>
+      <c r="X13">
+        <v>1.53</v>
+      </c>
+      <c r="Y13">
+        <v>1.31</v>
+      </c>
+      <c r="Z13">
+        <v>2.84</v>
+      </c>
+      <c r="AA13">
+        <v>1.95</v>
+      </c>
+      <c r="AB13">
+        <v>5.25</v>
+      </c>
+      <c r="AC13">
+        <v>2.1</v>
+      </c>
+      <c r="AD13">
+        <v>1.31</v>
+      </c>
+      <c r="AE13">
         <v>1.6</v>
       </c>
-      <c r="X13">
-        <v>1.43</v>
-      </c>
-      <c r="Y13">
-        <v>1.44</v>
-      </c>
-      <c r="Z13">
-        <v>2.87</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2212,16 +2218,16 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <v>1.02</v>
@@ -2236,10 +2242,10 @@
         <v>3.28</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N14">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
         <v>1.38</v>
@@ -2248,10 +2254,10 @@
         <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="R14">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="S14">
         <v>1.05</v>
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2304,82 +2310,82 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
-        <v>45001.54166666666</v>
+        <v>45001.5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="G15">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="I15">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2.88</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Y15">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="Z15">
-        <v>1.62</v>
+        <v>2.87</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2408,82 +2414,82 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>45001.54166666666</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16">
-        <v>1.88</v>
+        <v>5.85</v>
       </c>
       <c r="G16">
-        <v>3.45</v>
+        <v>4.08</v>
       </c>
       <c r="H16">
-        <v>3.9</v>
+        <v>1.33</v>
       </c>
       <c r="I16">
+        <v>1.01</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>1.13</v>
+      </c>
+      <c r="L16">
+        <v>5.1</v>
+      </c>
+      <c r="M16">
+        <v>1.36</v>
+      </c>
+      <c r="N16">
+        <v>2.49</v>
+      </c>
+      <c r="O16">
+        <v>1.24</v>
+      </c>
+      <c r="P16">
+        <v>3.7</v>
+      </c>
+      <c r="Q16">
+        <v>1.95</v>
+      </c>
+      <c r="R16">
+        <v>1.78</v>
+      </c>
+      <c r="S16">
+        <v>3.25</v>
+      </c>
+      <c r="T16">
+        <v>1.1</v>
+      </c>
+      <c r="U16">
         <v>1.05</v>
       </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>1.3</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.06</v>
-      </c>
-      <c r="N16">
-        <v>1.74</v>
-      </c>
-      <c r="O16">
-        <v>1.43</v>
-      </c>
-      <c r="P16">
-        <v>2.65</v>
-      </c>
-      <c r="Q16">
-        <v>1.87</v>
-      </c>
-      <c r="R16">
-        <v>1.86</v>
-      </c>
-      <c r="S16">
-        <v>1.22</v>
-      </c>
-      <c r="T16">
-        <v>1.27</v>
-      </c>
-      <c r="U16">
-        <v>1.83</v>
-      </c>
       <c r="V16">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1.68</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>3.24</v>
+        <v>1.62</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2512,34 +2518,34 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
-        <v>45001.5625</v>
+        <v>45001.54166666666</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="H17">
-        <v>2.7</v>
+        <v>3.63</v>
       </c>
       <c r="I17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J17">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>1.3</v>
@@ -2548,46 +2554,46 @@
         <v>3.3</v>
       </c>
       <c r="M17">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O17">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P17">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="Q17">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="R17">
-        <v>2.01</v>
+        <v>1.62</v>
       </c>
       <c r="S17">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="T17">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="U17">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="V17">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="W17">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X17">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="Y17">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="Z17">
-        <v>3.76</v>
+        <v>3.24</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2616,186 +2622,186 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
-        <v>45001.58333333334</v>
+        <v>45001.5625</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V18">
-        <v>0.91</v>
+        <v>1.92</v>
       </c>
       <c r="W18">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="X18">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="Y18">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="Z18">
-        <v>2.8</v>
+        <v>3.76</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>45001.58333333334</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="W19">
-        <v>1.11</v>
+        <v>0.9</v>
       </c>
       <c r="X19">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="Y19">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="Z19">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2824,111 +2830,111 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
-        <v>45001.61458333334</v>
+        <v>45001.58333333334</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I20">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K20">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="M20">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="N20">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O20">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P20">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="Q20">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S20">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="T20">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U20">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="V20">
-        <v>2.38</v>
+        <v>0.78</v>
       </c>
       <c r="W20">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="X20">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="Y20">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="Z20">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AA20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45001.61458333334</v>
@@ -2940,99 +2946,99 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>2.85</v>
+        <v>4.8</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="I21">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="J21">
+        <v>11.5</v>
+      </c>
+      <c r="K21">
+        <v>1.23</v>
+      </c>
+      <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>1.88</v>
+      </c>
+      <c r="N21">
+        <v>1.98</v>
+      </c>
+      <c r="O21">
+        <v>1.31</v>
+      </c>
+      <c r="P21">
+        <v>3.2</v>
+      </c>
+      <c r="Q21">
+        <v>1.83</v>
+      </c>
+      <c r="R21">
+        <v>1.83</v>
+      </c>
+      <c r="S21">
+        <v>2.15</v>
+      </c>
+      <c r="T21">
+        <v>1.23</v>
+      </c>
+      <c r="U21">
+        <v>1.19</v>
+      </c>
+      <c r="V21">
+        <v>1.57</v>
+      </c>
+      <c r="W21">
+        <v>2.36</v>
+      </c>
+      <c r="X21">
+        <v>1.57</v>
+      </c>
+      <c r="Y21">
+        <v>1.75</v>
+      </c>
+      <c r="Z21">
+        <v>3.32</v>
+      </c>
+      <c r="AA21">
+        <v>4.1</v>
+      </c>
+      <c r="AB21">
         <v>8.5</v>
       </c>
-      <c r="K21">
-        <v>1.44</v>
-      </c>
-      <c r="L21">
-        <v>2.8</v>
-      </c>
-      <c r="M21">
-        <v>2.05</v>
-      </c>
-      <c r="N21">
-        <v>1.67</v>
-      </c>
-      <c r="O21">
-        <v>1.53</v>
-      </c>
-      <c r="P21">
-        <v>2.5</v>
-      </c>
-      <c r="Q21">
-        <v>1.95</v>
-      </c>
-      <c r="R21">
-        <v>1.81</v>
-      </c>
-      <c r="S21">
-        <v>1.62</v>
-      </c>
-      <c r="T21">
-        <v>1.3</v>
-      </c>
-      <c r="U21">
-        <v>1.38</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>2.33</v>
-      </c>
-      <c r="X21">
-        <v>2.01</v>
-      </c>
-      <c r="Y21">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z21">
-        <v>2.95</v>
-      </c>
-      <c r="AA21">
-        <v>2.25</v>
-      </c>
-      <c r="AB21">
-        <v>7</v>
-      </c>
       <c r="AC21">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="AD21">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AE21">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="AF21">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="AG21">
-        <v>3.1</v>
+        <v>2.69</v>
       </c>
       <c r="AH21">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>45001.61458333334</v>
@@ -3044,13 +3050,13 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="G22">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
         <v>2.7</v>
@@ -3059,79 +3065,79 @@
         <v>1.05</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="L22">
         <v>3.4</v>
       </c>
       <c r="M22">
+        <v>1.87</v>
+      </c>
+      <c r="N22">
+        <v>1.95</v>
+      </c>
+      <c r="O22">
+        <v>1.37</v>
+      </c>
+      <c r="P22">
+        <v>2.85</v>
+      </c>
+      <c r="Q22">
+        <v>1.73</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>1.73</v>
-      </c>
-      <c r="O22">
-        <v>1.45</v>
-      </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
+      <c r="S22">
+        <v>1.43</v>
+      </c>
+      <c r="T22">
+        <v>1.27</v>
+      </c>
+      <c r="U22">
+        <v>1.57</v>
+      </c>
+      <c r="V22">
+        <v>2.38</v>
+      </c>
+      <c r="W22">
         <v>1.8</v>
       </c>
-      <c r="R22">
-        <v>1.98</v>
-      </c>
-      <c r="S22">
-        <v>1.36</v>
-      </c>
-      <c r="T22">
-        <v>1.28</v>
-      </c>
-      <c r="U22">
-        <v>1.68</v>
-      </c>
-      <c r="V22">
-        <v>2.18</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
       <c r="X22">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="Y22">
-        <v>0.83</v>
+        <v>1.19</v>
       </c>
       <c r="Z22">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="AA22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB22">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC22">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="AD22">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AE22">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AF22">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="AG22">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="AH22">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3148,99 +3154,99 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>3.5</v>
+        <v>1.59</v>
       </c>
       <c r="G23">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="H23">
-        <v>2.02</v>
+        <v>5.14</v>
       </c>
       <c r="I23">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J23">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="L23">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O23">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P23">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q23">
         <v>1.85</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.12</v>
       </c>
       <c r="T23">
         <v>1.22</v>
       </c>
       <c r="U23">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="V23">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="W23">
-        <v>2.44</v>
+        <v>1.33</v>
       </c>
       <c r="X23">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="Y23">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
-        <v>3.53</v>
+        <v>2.89</v>
       </c>
       <c r="AA23">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="AB23">
         <v>8</v>
       </c>
       <c r="AC23">
-        <v>1.62</v>
+        <v>3.45</v>
       </c>
       <c r="AD23">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AE23">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AF23">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="AG23">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AH23">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>45001.61458333334</v>
@@ -3252,99 +3258,99 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="G24">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>5.6</v>
+        <v>2.75</v>
       </c>
       <c r="I24">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J24">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="K24">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N24">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
+        <v>1.37</v>
+      </c>
+      <c r="P24">
+        <v>2.85</v>
+      </c>
+      <c r="Q24">
+        <v>1.67</v>
+      </c>
+      <c r="R24">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <v>1.44</v>
+      </c>
+      <c r="T24">
+        <v>1.31</v>
+      </c>
+      <c r="U24">
+        <v>1.51</v>
+      </c>
+      <c r="V24">
+        <v>1.67</v>
+      </c>
+      <c r="W24">
+        <v>1.67</v>
+      </c>
+      <c r="X24">
+        <v>1.91</v>
+      </c>
+      <c r="Y24">
+        <v>1.29</v>
+      </c>
+      <c r="Z24">
+        <v>3.2</v>
+      </c>
+      <c r="AA24">
+        <v>1.93</v>
+      </c>
+      <c r="AB24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC24">
+        <v>2.3</v>
+      </c>
+      <c r="AD24">
+        <v>1.18</v>
+      </c>
+      <c r="AE24">
         <v>1.35</v>
       </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>1.85</v>
-      </c>
-      <c r="R24">
-        <v>1.85</v>
-      </c>
-      <c r="S24">
-        <v>1.12</v>
-      </c>
-      <c r="T24">
-        <v>1.22</v>
-      </c>
-      <c r="U24">
-        <v>2.4</v>
-      </c>
-      <c r="V24">
-        <v>1.29</v>
-      </c>
-      <c r="W24">
-        <v>1.33</v>
-      </c>
-      <c r="X24">
-        <v>1.64</v>
-      </c>
-      <c r="Y24">
-        <v>1.25</v>
-      </c>
-      <c r="Z24">
-        <v>2.89</v>
-      </c>
-      <c r="AA24">
-        <v>1.44</v>
-      </c>
-      <c r="AB24">
-        <v>8</v>
-      </c>
-      <c r="AC24">
-        <v>3.45</v>
-      </c>
-      <c r="AD24">
-        <v>1.38</v>
-      </c>
-      <c r="AE24">
-        <v>1.64</v>
-      </c>
       <c r="AF24">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AG24">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="AH24">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>45001.61458333334</v>
@@ -3356,99 +3362,99 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="G25">
-        <v>3.8</v>
+        <v>3.22</v>
       </c>
       <c r="H25">
-        <v>1.69</v>
+        <v>2.47</v>
       </c>
       <c r="I25">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J25">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>1.73</v>
+      </c>
+      <c r="O25">
+        <v>1.45</v>
+      </c>
+      <c r="P25">
+        <v>2.75</v>
+      </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+      <c r="R25">
+        <v>1.98</v>
+      </c>
+      <c r="S25">
+        <v>1.36</v>
+      </c>
+      <c r="T25">
+        <v>1.28</v>
+      </c>
+      <c r="U25">
+        <v>1.68</v>
+      </c>
+      <c r="V25">
+        <v>2.18</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
         <v>2.05</v>
       </c>
-      <c r="O25">
-        <v>1.31</v>
-      </c>
-      <c r="P25">
-        <v>3.2</v>
-      </c>
-      <c r="Q25">
-        <v>1.83</v>
-      </c>
-      <c r="R25">
-        <v>1.83</v>
-      </c>
-      <c r="S25">
-        <v>2.15</v>
-      </c>
-      <c r="T25">
-        <v>1.23</v>
-      </c>
-      <c r="U25">
-        <v>1.19</v>
-      </c>
-      <c r="V25">
-        <v>1.57</v>
-      </c>
-      <c r="W25">
-        <v>2.36</v>
-      </c>
-      <c r="X25">
-        <v>1.57</v>
-      </c>
       <c r="Y25">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="Z25">
-        <v>3.32</v>
+        <v>2.88</v>
       </c>
       <c r="AA25">
-        <v>4.56</v>
+        <v>1.8</v>
       </c>
       <c r="AB25">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AC25">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="AD25">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AE25">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AF25">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="AG25">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="AH25">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>45001.61458333334</v>
@@ -3460,406 +3466,406 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>2.45</v>
+        <v>2.71</v>
       </c>
       <c r="G26">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H26">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="I26">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="J26">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K26">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M26">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="N26">
+        <v>1.66</v>
+      </c>
+      <c r="O26">
+        <v>1.53</v>
+      </c>
+      <c r="P26">
+        <v>2.5</v>
+      </c>
+      <c r="Q26">
         <v>1.95</v>
       </c>
-      <c r="O26">
-        <v>1.37</v>
-      </c>
-      <c r="P26">
-        <v>2.85</v>
-      </c>
-      <c r="Q26">
-        <v>1.67</v>
-      </c>
       <c r="R26">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="S26">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T26">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U26">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="V26">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="X26">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="Y26">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z26">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AA26">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AB26">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC26">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="AD26">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AE26">
-        <v>1.35</v>
+        <v>1.82</v>
       </c>
       <c r="AF26">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AG26">
-        <v>2.09</v>
+        <v>3.1</v>
       </c>
       <c r="AH26">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
-        <v>45001.66666666666</v>
+        <v>45001.61458333334</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F27">
+        <v>3.32</v>
+      </c>
+      <c r="G27">
+        <v>3.51</v>
+      </c>
+      <c r="H27">
         <v>1.94</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>4.3</v>
-      </c>
       <c r="I27">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="K27">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="M27">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="O27">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P27">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>1.22</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="V27">
-        <v>1.36</v>
+        <v>2.29</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2.44</v>
       </c>
       <c r="X27">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="Y27">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="Z27">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="AA27">
-        <v>1.43</v>
+        <v>2.7</v>
       </c>
       <c r="AB27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC27">
-        <v>3.15</v>
+        <v>1.62</v>
       </c>
       <c r="AD27">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AE27">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AF27">
+        <v>1.81</v>
+      </c>
+      <c r="AG27">
         <v>2.25</v>
       </c>
-      <c r="AG27">
-        <v>3.1</v>
-      </c>
       <c r="AH27">
-        <v>4.4</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
-        <v>45001.69791666666</v>
+        <v>45001.66666666666</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="I28">
         <v>1.07</v>
       </c>
       <c r="J28">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K28">
+        <v>1.33</v>
+      </c>
+      <c r="L28">
+        <v>3.1</v>
+      </c>
+      <c r="M28">
+        <v>2.43</v>
+      </c>
+      <c r="N28">
+        <v>1.54</v>
+      </c>
+      <c r="O28">
+        <v>1.43</v>
+      </c>
+      <c r="P28">
+        <v>2.65</v>
+      </c>
+      <c r="Q28">
+        <v>1.9</v>
+      </c>
+      <c r="R28">
+        <v>1.83</v>
+      </c>
+      <c r="S28">
+        <v>1.17</v>
+      </c>
+      <c r="T28">
+        <v>1.22</v>
+      </c>
+      <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.36</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>1.99</v>
-      </c>
-      <c r="N28">
-        <v>1.81</v>
-      </c>
-      <c r="O28">
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1.79</v>
+      </c>
+      <c r="Y28">
+        <v>1.46</v>
+      </c>
+      <c r="Z28">
+        <v>3.25</v>
+      </c>
+      <c r="AA28">
+        <v>1.43</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28">
+        <v>3.15</v>
+      </c>
+      <c r="AD28">
         <v>1.4</v>
       </c>
-      <c r="P28">
-        <v>2.75</v>
-      </c>
-      <c r="Q28">
-        <v>1.82</v>
-      </c>
-      <c r="R28">
-        <v>1.94</v>
-      </c>
-      <c r="S28">
-        <v>1.8</v>
-      </c>
-      <c r="T28">
-        <v>1.33</v>
-      </c>
-      <c r="U28">
-        <v>1.25</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>0.5</v>
-      </c>
-      <c r="X28">
-        <v>2.19</v>
-      </c>
-      <c r="Y28">
-        <v>0.82</v>
-      </c>
-      <c r="Z28">
-        <v>3.01</v>
-      </c>
-      <c r="AA28">
-        <v>1.95</v>
-      </c>
-      <c r="AB28">
-        <v>8</v>
-      </c>
-      <c r="AC28">
-        <v>2.1</v>
-      </c>
-      <c r="AD28">
-        <v>1.18</v>
-      </c>
       <c r="AE28">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AF28">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AG28">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="AH28">
-        <v>3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
-        <v>45001.70833333334</v>
+        <v>45001.69791666666</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="G29">
-        <v>3.65</v>
+        <v>3.22</v>
       </c>
       <c r="H29">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="I29">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="J29">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="K29">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="L29">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="N29">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P29">
         <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S29">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U29">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="V29">
         <v>2</v>
       </c>
       <c r="W29">
-        <v>1.89</v>
+        <v>0.5</v>
       </c>
       <c r="X29">
-        <v>1.61</v>
+        <v>2.19</v>
       </c>
       <c r="Y29">
-        <v>1.52</v>
+        <v>0.82</v>
       </c>
       <c r="Z29">
-        <v>3.13</v>
+        <v>3.01</v>
       </c>
       <c r="AA29">
+        <v>1.95</v>
+      </c>
+      <c r="AB29">
+        <v>8</v>
+      </c>
+      <c r="AC29">
         <v>2.1</v>
       </c>
-      <c r="AB29">
-        <v>7</v>
-      </c>
-      <c r="AC29">
-        <v>1.98</v>
-      </c>
       <c r="AD29">
+        <v>1.18</v>
+      </c>
+      <c r="AE29">
         <v>1.38</v>
       </c>
-      <c r="AE29">
-        <v>1.65</v>
-      </c>
       <c r="AF29">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AG29">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AH29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3876,94 +3882,94 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="G30">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="H30">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="I30">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="K30">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="M30">
+        <v>1.8</v>
+      </c>
+      <c r="N30">
+        <v>2.08</v>
+      </c>
+      <c r="O30">
+        <v>1.39</v>
+      </c>
+      <c r="P30">
+        <v>2.75</v>
+      </c>
+      <c r="Q30">
+        <v>1.71</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.58</v>
+      </c>
+      <c r="T30">
+        <v>1.31</v>
+      </c>
+      <c r="U30">
+        <v>1.36</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1.89</v>
+      </c>
+      <c r="X30">
         <v>1.61</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>1.34</v>
-      </c>
-      <c r="P30">
-        <v>2.95</v>
-      </c>
-      <c r="Q30">
-        <v>1.7</v>
-      </c>
-      <c r="R30">
+      <c r="Y30">
+        <v>1.52</v>
+      </c>
+      <c r="Z30">
+        <v>3.13</v>
+      </c>
+      <c r="AA30">
         <v>2.1</v>
       </c>
-      <c r="S30">
-        <v>1.78</v>
-      </c>
-      <c r="T30">
-        <v>1.28</v>
-      </c>
-      <c r="U30">
-        <v>1.28</v>
-      </c>
-      <c r="V30">
-        <v>1.44</v>
-      </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>1.78</v>
-      </c>
-      <c r="Y30">
-        <v>2.52</v>
-      </c>
-      <c r="Z30">
-        <v>4.3</v>
-      </c>
-      <c r="AA30">
-        <v>2.32</v>
-      </c>
       <c r="AB30">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC30">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AD30">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AE30">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AF30">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AG30">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AH30">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3980,94 +3986,94 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31">
-        <v>1.42</v>
+        <v>3.66</v>
       </c>
       <c r="G31">
-        <v>4.6</v>
+        <v>3.41</v>
       </c>
       <c r="H31">
-        <v>7.8</v>
+        <v>1.87</v>
       </c>
       <c r="I31">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="N31">
+        <v>1.85</v>
+      </c>
+      <c r="O31">
+        <v>1.34</v>
+      </c>
+      <c r="P31">
+        <v>2.95</v>
+      </c>
+      <c r="Q31">
+        <v>1.7</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>1.78</v>
+      </c>
+      <c r="T31">
+        <v>1.28</v>
+      </c>
+      <c r="U31">
+        <v>1.28</v>
+      </c>
+      <c r="V31">
+        <v>1.44</v>
+      </c>
+      <c r="W31">
         <v>2</v>
       </c>
-      <c r="O31">
-        <v>1.32</v>
-      </c>
-      <c r="P31">
-        <v>3.1</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-      <c r="R31">
+      <c r="X31">
         <v>1.78</v>
       </c>
-      <c r="S31">
-        <v>1.11</v>
-      </c>
-      <c r="T31">
-        <v>1.18</v>
-      </c>
-      <c r="U31">
-        <v>2.95</v>
-      </c>
-      <c r="V31">
-        <v>2.29</v>
-      </c>
-      <c r="W31">
-        <v>1.67</v>
-      </c>
-      <c r="X31">
-        <v>2.26</v>
-      </c>
       <c r="Y31">
-        <v>1</v>
+        <v>2.52</v>
       </c>
       <c r="Z31">
-        <v>3.26</v>
+        <v>4.3</v>
       </c>
       <c r="AA31">
-        <v>1.27</v>
+        <v>2.32</v>
       </c>
       <c r="AB31">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AC31">
-        <v>4.9</v>
+        <v>1.82</v>
       </c>
       <c r="AD31">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AE31">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AF31">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AG31">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="AH31">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4084,99 +4090,99 @@
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="G32">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>7.09</v>
       </c>
       <c r="I32">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="L32">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>2.04</v>
       </c>
       <c r="O32">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="P32">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="S32">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="T32">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="U32">
-        <v>1.7</v>
+        <v>2.95</v>
       </c>
       <c r="V32">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="W32">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="X32">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="Y32">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>3.65</v>
+        <v>3.26</v>
       </c>
       <c r="AA32">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AB32">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AC32">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD32">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AE32">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AF32">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AG32">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="AH32">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>45001.70833333334</v>
@@ -4188,94 +4194,94 @@
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="G33">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H33">
-        <v>2.43</v>
+        <v>3.12</v>
       </c>
       <c r="I33">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="J33">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="K33">
+        <v>1.43</v>
+      </c>
+      <c r="L33">
+        <v>2.65</v>
+      </c>
+      <c r="M33">
+        <v>2.28</v>
+      </c>
+      <c r="N33">
+        <v>1.63</v>
+      </c>
+      <c r="O33">
+        <v>1.49</v>
+      </c>
+      <c r="P33">
+        <v>2.4</v>
+      </c>
+      <c r="Q33">
+        <v>2.05</v>
+      </c>
+      <c r="R33">
+        <v>1.68</v>
+      </c>
+      <c r="S33">
         <v>1.28</v>
       </c>
-      <c r="L33">
-        <v>3.5</v>
-      </c>
-      <c r="M33">
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>1.7</v>
+      </c>
+      <c r="V33">
+        <v>2.14</v>
+      </c>
+      <c r="W33">
         <v>1.78</v>
       </c>
-      <c r="N33">
-        <v>1.97</v>
-      </c>
-      <c r="O33">
-        <v>1.35</v>
-      </c>
-      <c r="P33">
-        <v>2.9</v>
-      </c>
-      <c r="Q33">
-        <v>1.67</v>
-      </c>
-      <c r="R33">
-        <v>2.1</v>
-      </c>
-      <c r="S33">
-        <v>1.43</v>
-      </c>
-      <c r="T33">
-        <v>1.28</v>
-      </c>
-      <c r="U33">
-        <v>1.34</v>
-      </c>
-      <c r="V33">
-        <v>2.54</v>
-      </c>
-      <c r="W33">
-        <v>1.33</v>
-      </c>
       <c r="X33">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="Y33">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="Z33">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="AA33">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AB33">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC33">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AD33">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AE33">
         <v>1.7</v>
       </c>
       <c r="AF33">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AG33">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AH33">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4292,94 +4298,94 @@
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34">
-        <v>1.21</v>
+        <v>2.8</v>
       </c>
       <c r="G34">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="H34">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="I34">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="N34">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
+        <v>1.35</v>
+      </c>
+      <c r="P34">
+        <v>2.9</v>
+      </c>
+      <c r="Q34">
+        <v>1.73</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.43</v>
+      </c>
+      <c r="T34">
+        <v>1.28</v>
+      </c>
+      <c r="U34">
         <v>1.34</v>
       </c>
-      <c r="P34">
-        <v>3.1</v>
-      </c>
-      <c r="Q34">
-        <v>2.5</v>
-      </c>
-      <c r="R34">
-        <v>1.5</v>
-      </c>
-      <c r="S34">
-        <v>1.02</v>
-      </c>
-      <c r="T34">
-        <v>1.1</v>
-      </c>
-      <c r="U34">
-        <v>3.18</v>
-      </c>
       <c r="V34">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="W34">
         <v>1.33</v>
       </c>
       <c r="X34">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>1.73</v>
       </c>
       <c r="Z34">
-        <v>2.81</v>
+        <v>3.87</v>
       </c>
       <c r="AA34">
-        <v>1.09</v>
+        <v>2.07</v>
       </c>
       <c r="AB34">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AC34">
-        <v>10</v>
+        <v>2.18</v>
       </c>
       <c r="AD34">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AE34">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AF34">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="AG34">
-        <v>2.14</v>
+        <v>2.93</v>
       </c>
       <c r="AH34">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4396,94 +4402,94 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="G35">
         <v>4.8</v>
       </c>
       <c r="H35">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="I35">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="J35">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="K35">
         <v>1.25</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P35">
         <v>3.1</v>
       </c>
       <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>1.5</v>
+      </c>
+      <c r="S35">
+        <v>1.02</v>
+      </c>
+      <c r="T35">
+        <v>1.1</v>
+      </c>
+      <c r="U35">
+        <v>3.18</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>1.81</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>2.81</v>
+      </c>
+      <c r="AA35">
+        <v>1.15</v>
+      </c>
+      <c r="AB35">
+        <v>13.5</v>
+      </c>
+      <c r="AC35">
+        <v>7.9</v>
+      </c>
+      <c r="AD35">
+        <v>1.18</v>
+      </c>
+      <c r="AE35">
+        <v>1.38</v>
+      </c>
+      <c r="AF35">
         <v>2.1</v>
       </c>
-      <c r="R35">
-        <v>1.67</v>
-      </c>
-      <c r="S35">
-        <v>1.1</v>
-      </c>
-      <c r="T35">
-        <v>1.19</v>
-      </c>
-      <c r="U35">
-        <v>2.7</v>
-      </c>
-      <c r="V35">
-        <v>1.67</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>2.1</v>
-      </c>
-      <c r="Y35">
-        <v>1.1</v>
-      </c>
-      <c r="Z35">
-        <v>3.2</v>
-      </c>
-      <c r="AA35">
-        <v>1.35</v>
-      </c>
-      <c r="AB35">
-        <v>7.7</v>
-      </c>
-      <c r="AC35">
-        <v>4.56</v>
-      </c>
-      <c r="AD35">
-        <v>1.33</v>
-      </c>
-      <c r="AE35">
-        <v>1.64</v>
-      </c>
-      <c r="AF35">
-        <v>2.13</v>
-      </c>
       <c r="AG35">
+        <v>2.14</v>
+      </c>
+      <c r="AH35">
         <v>2.84</v>
-      </c>
-      <c r="AH35">
-        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4500,215 +4506,215 @@
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G36">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H36">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="I36">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="K36">
         <v>1.25</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P36">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S36">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="T36">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="U36">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="V36">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="W36">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Y36">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="Z36">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="AA36">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AB36">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AC36">
-        <v>5.85</v>
+        <v>4.68</v>
       </c>
       <c r="AD36">
         <v>1.33</v>
       </c>
       <c r="AE36">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AF36">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AG36">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AH36">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
         <v>45001.70833333334</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
-        <v>45001.79166666666</v>
+        <v>45001.70833333334</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4759,19 +4765,19 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -4812,55 +4818,55 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V39">
         <v>2</v>
@@ -4916,7 +4922,7 @@
         <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <v>2.03</v>
@@ -4982,132 +4988,132 @@
         <v>2.94</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2">
-        <v>45001.83333333334</v>
+        <v>45001.79166666666</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1.74</v>
+      </c>
+      <c r="Z41">
+        <v>1.74</v>
+      </c>
+      <c r="AA41">
+        <v>1.55</v>
+      </c>
+      <c r="AB41">
+        <v>8.1</v>
+      </c>
+      <c r="AC41">
+        <v>2.97</v>
+      </c>
+      <c r="AD41">
+        <v>1.18</v>
+      </c>
+      <c r="AE41">
+        <v>1.34</v>
+      </c>
+      <c r="AF41">
+        <v>1.91</v>
+      </c>
+      <c r="AG41">
         <v>2</v>
       </c>
-      <c r="W41">
-        <v>1.67</v>
-      </c>
-      <c r="X41">
-        <v>1.51</v>
-      </c>
-      <c r="Y41">
-        <v>1.4</v>
-      </c>
-      <c r="Z41">
-        <v>2.91</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
       <c r="AH41">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -5124,7 +5130,7 @@
         <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5175,19 +5181,19 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X42">
+        <v>1.51</v>
+      </c>
+      <c r="Y42">
         <v>1.4</v>
       </c>
-      <c r="Y42">
-        <v>1.57</v>
-      </c>
       <c r="Z42">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -5228,7 +5234,7 @@
         <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5279,19 +5285,19 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
       <c r="X43">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Y43">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Z43">
-        <v>2.66</v>
+        <v>2.97</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -5332,7 +5338,7 @@
         <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5383,19 +5389,19 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
       <c r="X44">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="Y44">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="Z44">
-        <v>3.32</v>
+        <v>2.66</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -5436,7 +5442,7 @@
         <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5487,19 +5493,19 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
       <c r="X45">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="Y45">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Z45">
-        <v>3.17</v>
+        <v>3.32</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -5540,7 +5546,7 @@
         <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5591,19 +5597,19 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Y46">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="Z46">
-        <v>2.71</v>
+        <v>3.17</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5644,7 +5650,7 @@
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5695,19 +5701,19 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X47">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="Y47">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="Z47">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -5748,7 +5754,7 @@
         <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5799,19 +5805,19 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="W48">
         <v>1.5</v>
       </c>
       <c r="X48">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Y48">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="Z48">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -5852,7 +5858,7 @@
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5906,16 +5912,16 @@
         <v>2</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="Y49">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="Z49">
-        <v>2.36</v>
+        <v>3.16</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -5944,19 +5950,19 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>45001.83333333334</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6007,19 +6013,19 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y50">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="Z50">
-        <v>1.28</v>
+        <v>2.36</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -6048,10 +6054,10 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" s="2">
-        <v>45001.875</v>
+        <v>45001.83333333334</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6060,70 +6066,70 @@
         <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F51">
-        <v>2.19</v>
+        <v>1.2</v>
       </c>
       <c r="G51">
-        <v>3.01</v>
+        <v>5.44</v>
       </c>
       <c r="H51">
-        <v>2.84</v>
+        <v>9.91</v>
       </c>
       <c r="I51">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="N51">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="O51">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="W51">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="X51">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>2.34</v>
+        <v>1.28</v>
       </c>
       <c r="Z51">
-        <v>4.61</v>
+        <v>1.28</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -6152,105 +6158,209 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2">
         <v>45001.875</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>4.61</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45001.875</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>0</v>
       </c>
     </row>
